--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnf</t>
+  </si>
+  <si>
+    <t>Tnfrsf1a</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnf</t>
-  </si>
-  <si>
-    <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.6547335</v>
+        <v>8.932453500000001</v>
       </c>
       <c r="H2">
-        <v>5.309467</v>
+        <v>17.864907</v>
       </c>
       <c r="I2">
-        <v>0.02175991374635429</v>
+        <v>0.008059366136240859</v>
       </c>
       <c r="J2">
-        <v>0.01461872606984402</v>
+        <v>0.005387383723475209</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N2">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O2">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P2">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q2">
-        <v>130.3238102870848</v>
+        <v>370.5595016423446</v>
       </c>
       <c r="R2">
-        <v>521.2952411483391</v>
+        <v>1482.238006569378</v>
       </c>
       <c r="S2">
-        <v>0.004351508603029734</v>
+        <v>0.0009990958134147704</v>
       </c>
       <c r="T2">
-        <v>0.002158675621869342</v>
+        <v>0.0004796044022867626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.6547335</v>
+        <v>8.932453500000001</v>
       </c>
       <c r="H3">
-        <v>5.309467</v>
+        <v>17.864907</v>
       </c>
       <c r="I3">
-        <v>0.02175991374635429</v>
+        <v>0.008059366136240859</v>
       </c>
       <c r="J3">
-        <v>0.01461872606984402</v>
+        <v>0.005387383723475209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>148.929823</v>
       </c>
       <c r="O3">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P3">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q3">
-        <v>131.7896634223902</v>
+        <v>443.4362395702435</v>
       </c>
       <c r="R3">
-        <v>790.737980534341</v>
+        <v>2660.617437421462</v>
       </c>
       <c r="S3">
-        <v>0.004400453400722561</v>
+        <v>0.001195584753615701</v>
       </c>
       <c r="T3">
-        <v>0.00327443388530752</v>
+        <v>0.0008608899718754654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.6547335</v>
+        <v>8.932453500000001</v>
       </c>
       <c r="H4">
-        <v>5.309467</v>
+        <v>17.864907</v>
       </c>
       <c r="I4">
-        <v>0.02175991374635429</v>
+        <v>0.008059366136240859</v>
       </c>
       <c r="J4">
-        <v>0.01461872606984402</v>
+        <v>0.005387383723475209</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N4">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O4">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P4">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q4">
-        <v>123.427416605956</v>
+        <v>583.707859780638</v>
       </c>
       <c r="R4">
-        <v>740.564499635736</v>
+        <v>3502.247158683828</v>
       </c>
       <c r="S4">
-        <v>0.004121238199124228</v>
+        <v>0.0015737825541632</v>
       </c>
       <c r="T4">
-        <v>0.003066666268166879</v>
+        <v>0.001133214198905005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.6547335</v>
+        <v>8.932453500000001</v>
       </c>
       <c r="H5">
-        <v>5.309467</v>
+        <v>17.864907</v>
       </c>
       <c r="I5">
-        <v>0.02175991374635429</v>
+        <v>0.008059366136240859</v>
       </c>
       <c r="J5">
-        <v>0.01461872606984402</v>
+        <v>0.005387383723475209</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N5">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O5">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P5">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q5">
-        <v>59.61956027513875</v>
+        <v>272.0025122253203</v>
       </c>
       <c r="R5">
-        <v>238.478241100555</v>
+        <v>1088.010048901281</v>
       </c>
       <c r="S5">
-        <v>0.001990695551907343</v>
+        <v>0.0007333682445010155</v>
       </c>
       <c r="T5">
-        <v>0.0009875347495519483</v>
+        <v>0.0003520449528837972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.6547335</v>
+        <v>8.932453500000001</v>
       </c>
       <c r="H6">
-        <v>5.309467</v>
+        <v>17.864907</v>
       </c>
       <c r="I6">
-        <v>0.02175991374635429</v>
+        <v>0.008059366136240859</v>
       </c>
       <c r="J6">
-        <v>0.01461872606984402</v>
+        <v>0.005387383723475209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N6">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O6">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P6">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q6">
-        <v>80.4042719035225</v>
+        <v>1014.30406665271</v>
       </c>
       <c r="R6">
-        <v>482.425631421135</v>
+        <v>6085.824399916258</v>
       </c>
       <c r="S6">
-        <v>0.002684696527348185</v>
+        <v>0.002734748244292481</v>
       </c>
       <c r="T6">
-        <v>0.00199771716238896</v>
+        <v>0.00196917644859177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.6547335</v>
+        <v>8.932453500000001</v>
       </c>
       <c r="H7">
-        <v>5.309467</v>
+        <v>17.864907</v>
       </c>
       <c r="I7">
-        <v>0.02175991374635429</v>
+        <v>0.008059366136240859</v>
       </c>
       <c r="J7">
-        <v>0.01461872606984402</v>
+        <v>0.005387383723475209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N7">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O7">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P7">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q7">
-        <v>126.1253302312447</v>
+        <v>305.1672932994561</v>
       </c>
       <c r="R7">
-        <v>756.751981387468</v>
+        <v>1831.003759796736</v>
       </c>
       <c r="S7">
-        <v>0.004211321464222242</v>
+        <v>0.0008227865262536918</v>
       </c>
       <c r="T7">
-        <v>0.003133698382559375</v>
+        <v>0.000592453748932409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.35321066666668</v>
+        <v>96.85163633333332</v>
       </c>
       <c r="H8">
-        <v>178.059632</v>
+        <v>290.554909</v>
       </c>
       <c r="I8">
-        <v>0.4864973243739391</v>
+        <v>0.08738503907178259</v>
       </c>
       <c r="J8">
-        <v>0.4902573053576251</v>
+        <v>0.08762042744036788</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N8">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O8">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P8">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q8">
-        <v>2913.714904660691</v>
+        <v>4017.854007627981</v>
       </c>
       <c r="R8">
-        <v>17482.28942796415</v>
+        <v>24107.12404576788</v>
       </c>
       <c r="S8">
-        <v>0.09728886414905161</v>
+        <v>0.01083286516778432</v>
       </c>
       <c r="T8">
-        <v>0.07239389317937681</v>
+        <v>0.007800287651227609</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,14 +962,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.35321066666668</v>
+        <v>96.85163633333332</v>
       </c>
       <c r="H9">
-        <v>178.059632</v>
+        <v>290.554909</v>
       </c>
       <c r="I9">
-        <v>0.4864973243739391</v>
+        <v>0.08738503907178259</v>
       </c>
       <c r="J9">
-        <v>0.4902573053576251</v>
+        <v>0.08762042744036788</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>148.929823</v>
       </c>
       <c r="O9">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P9">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q9">
-        <v>2946.48771968946</v>
+        <v>4808.0323521279</v>
       </c>
       <c r="R9">
-        <v>26518.38947720514</v>
+        <v>43272.2911691511</v>
       </c>
       <c r="S9">
-        <v>0.09838314758220966</v>
+        <v>0.01296332970139344</v>
       </c>
       <c r="T9">
-        <v>0.1098122453018707</v>
+        <v>0.01400151746870489</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.35321066666668</v>
+        <v>96.85163633333332</v>
       </c>
       <c r="H10">
-        <v>178.059632</v>
+        <v>290.554909</v>
       </c>
       <c r="I10">
-        <v>0.4864973243739391</v>
+        <v>0.08738503907178259</v>
       </c>
       <c r="J10">
-        <v>0.4902573053576251</v>
+        <v>0.08762042744036788</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N10">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O10">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P10">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q10">
-        <v>2759.528766204118</v>
+        <v>6328.951095058336</v>
       </c>
       <c r="R10">
-        <v>24835.75889583706</v>
+        <v>56960.55985552503</v>
       </c>
       <c r="S10">
-        <v>0.09214059303509535</v>
+        <v>0.0170640032554951</v>
       </c>
       <c r="T10">
-        <v>0.1028444977954676</v>
+        <v>0.01843059963538303</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.35321066666668</v>
+        <v>96.85163633333332</v>
       </c>
       <c r="H11">
-        <v>178.059632</v>
+        <v>290.554909</v>
       </c>
       <c r="I11">
-        <v>0.4864973243739391</v>
+        <v>0.08738503907178259</v>
       </c>
       <c r="J11">
-        <v>0.4902573053576251</v>
+        <v>0.08762042744036788</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N11">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O11">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P11">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q11">
-        <v>1332.944463489213</v>
+        <v>2949.233197329241</v>
       </c>
       <c r="R11">
-        <v>7997.66678093528</v>
+        <v>17695.39918397545</v>
       </c>
       <c r="S11">
-        <v>0.04450698063122074</v>
+        <v>0.0079516691035478</v>
       </c>
       <c r="T11">
-        <v>0.033118215838319</v>
+        <v>0.005725660326642673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.35321066666668</v>
+        <v>96.85163633333332</v>
       </c>
       <c r="H12">
-        <v>178.059632</v>
+        <v>290.554909</v>
       </c>
       <c r="I12">
-        <v>0.4864973243739391</v>
+        <v>0.08738503907178259</v>
       </c>
       <c r="J12">
-        <v>0.4902573053576251</v>
+        <v>0.08762042744036788</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N12">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O12">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P12">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q12">
-        <v>1797.638704144774</v>
+        <v>10997.76322315804</v>
       </c>
       <c r="R12">
-        <v>16178.74833730296</v>
+        <v>98979.86900842235</v>
       </c>
       <c r="S12">
-        <v>0.06002310912329442</v>
+        <v>0.02965196991167511</v>
       </c>
       <c r="T12">
-        <v>0.06699594945689699</v>
+        <v>0.03202669254452457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.35321066666668</v>
+        <v>96.85163633333332</v>
       </c>
       <c r="H13">
-        <v>178.059632</v>
+        <v>290.554909</v>
       </c>
       <c r="I13">
-        <v>0.4864973243739391</v>
+        <v>0.08738503907178259</v>
       </c>
       <c r="J13">
-        <v>0.4902573053576251</v>
+        <v>0.08762042744036788</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N13">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O13">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P13">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q13">
-        <v>2819.847376626682</v>
+        <v>3308.82793976667</v>
       </c>
       <c r="R13">
-        <v>25378.62638964013</v>
+        <v>29779.45145790003</v>
       </c>
       <c r="S13">
-        <v>0.09415462985306733</v>
+        <v>0.008921201931886816</v>
       </c>
       <c r="T13">
-        <v>0.105092503785694</v>
+        <v>0.009635669813885115</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1522935</v>
+        <v>947.0342406666667</v>
       </c>
       <c r="H14">
-        <v>0.304587</v>
+        <v>2841.102722</v>
       </c>
       <c r="I14">
-        <v>0.001248296080992841</v>
+        <v>0.854468001326792</v>
       </c>
       <c r="J14">
-        <v>0.0008386291726524681</v>
+        <v>0.8567696748280812</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N14">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O14">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P14">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q14">
-        <v>7.47625673234475</v>
+        <v>39287.3622302849</v>
       </c>
       <c r="R14">
-        <v>29.905026929379</v>
+        <v>235724.1733817094</v>
       </c>
       <c r="S14">
-        <v>0.0002496320159577257</v>
+        <v>0.1059258741185166</v>
       </c>
       <c r="T14">
-        <v>0.0001238362592023488</v>
+        <v>0.07627273810158117</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1522935</v>
+        <v>947.0342406666667</v>
       </c>
       <c r="H15">
-        <v>0.304587</v>
+        <v>2841.102722</v>
       </c>
       <c r="I15">
-        <v>0.001248296080992841</v>
+        <v>0.854468001326792</v>
       </c>
       <c r="J15">
-        <v>0.0008386291726524681</v>
+        <v>0.8567696748280812</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>148.929823</v>
       </c>
       <c r="O15">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P15">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q15">
-        <v>7.5603479996835</v>
+        <v>47013.88061247535</v>
       </c>
       <c r="R15">
-        <v>45.362087998101</v>
+        <v>423124.9255122782</v>
       </c>
       <c r="S15">
-        <v>0.0002524398211658313</v>
+        <v>0.1267579729682431</v>
       </c>
       <c r="T15">
-        <v>0.0001878437127162033</v>
+        <v>0.1369095759881587</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1522935</v>
+        <v>947.0342406666667</v>
       </c>
       <c r="H16">
-        <v>0.304587</v>
+        <v>2841.102722</v>
       </c>
       <c r="I16">
-        <v>0.001248296080992841</v>
+        <v>0.854468001326792</v>
       </c>
       <c r="J16">
-        <v>0.0008386291726524681</v>
+        <v>0.8567696748280812</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N16">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O16">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P16">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q16">
-        <v>7.080632866116</v>
+        <v>61885.72151632491</v>
       </c>
       <c r="R16">
-        <v>42.483797196696</v>
+        <v>556971.4936469242</v>
       </c>
       <c r="S16">
-        <v>0.0002364221454538942</v>
+        <v>0.1668551609203891</v>
       </c>
       <c r="T16">
-        <v>0.0001759247545228448</v>
+        <v>0.1802180075786602</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1522935</v>
+        <v>947.0342406666667</v>
       </c>
       <c r="H17">
-        <v>0.304587</v>
+        <v>2841.102722</v>
       </c>
       <c r="I17">
-        <v>0.001248296080992841</v>
+        <v>0.854468001326792</v>
       </c>
       <c r="J17">
-        <v>0.0008386291726524681</v>
+        <v>0.8567696748280812</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N17">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O17">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P17">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q17">
-        <v>3.42018191383875</v>
+        <v>28838.17896446166</v>
       </c>
       <c r="R17">
-        <v>13.680727655355</v>
+        <v>173029.0737867699</v>
       </c>
       <c r="S17">
-        <v>0.0001141997842850896</v>
+        <v>0.07775297554698331</v>
       </c>
       <c r="T17">
-        <v>5.665168401306181E-05</v>
+        <v>0.05598662640138669</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1522935</v>
+        <v>947.0342406666667</v>
       </c>
       <c r="H18">
-        <v>0.304587</v>
+        <v>2841.102722</v>
       </c>
       <c r="I18">
-        <v>0.001248296080992841</v>
+        <v>0.854468001326792</v>
       </c>
       <c r="J18">
-        <v>0.0008386291726524681</v>
+        <v>0.8567696748280812</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N18">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O18">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P18">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q18">
-        <v>4.6125337941225</v>
+        <v>107538.2795519239</v>
       </c>
       <c r="R18">
-        <v>27.675202764735</v>
+        <v>967844.5159673148</v>
       </c>
       <c r="S18">
-        <v>0.000154012382255206</v>
+        <v>0.2899427606254014</v>
       </c>
       <c r="T18">
-        <v>0.0001146025914353675</v>
+        <v>0.3131632629373536</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1522935</v>
+        <v>947.0342406666667</v>
       </c>
       <c r="H19">
-        <v>0.304587</v>
+        <v>2841.102722</v>
       </c>
       <c r="I19">
-        <v>0.001248296080992841</v>
+        <v>0.854468001326792</v>
       </c>
       <c r="J19">
-        <v>0.0008386291726524681</v>
+        <v>0.8567696748280812</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N19">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O19">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P19">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q19">
-        <v>7.235403470658</v>
+        <v>32354.36667945177</v>
       </c>
       <c r="R19">
-        <v>43.412420823948</v>
+        <v>291189.3001150659</v>
       </c>
       <c r="S19">
-        <v>0.0002415899318750941</v>
+        <v>0.08723325714725852</v>
       </c>
       <c r="T19">
-        <v>0.000179770170762642</v>
+        <v>0.09421946382094078</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.538422</v>
+        <v>55.51368333333333</v>
       </c>
       <c r="H20">
-        <v>16.615266</v>
+        <v>166.54105</v>
       </c>
       <c r="I20">
-        <v>0.04539649083831241</v>
+        <v>0.05008759346518457</v>
       </c>
       <c r="J20">
-        <v>0.04574734568113768</v>
+        <v>0.05022251400807577</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N20">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O20">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P20">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q20">
-        <v>271.887275320787</v>
+        <v>2302.96444647945</v>
       </c>
       <c r="R20">
-        <v>1631.323651924722</v>
+        <v>13817.7866788767</v>
       </c>
       <c r="S20">
-        <v>0.009078308982882519</v>
+        <v>0.006209211008550632</v>
       </c>
       <c r="T20">
-        <v>0.006755286296171448</v>
+        <v>0.00447099001083296</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,14 +1706,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.538422</v>
+        <v>55.51368333333333</v>
       </c>
       <c r="H21">
-        <v>16.615266</v>
+        <v>166.54105</v>
       </c>
       <c r="I21">
-        <v>0.04539649083831241</v>
+        <v>0.05008759346518457</v>
       </c>
       <c r="J21">
-        <v>0.04574734568113768</v>
+        <v>0.05022251400807577</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>148.929823</v>
       </c>
       <c r="O21">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P21">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q21">
-        <v>274.9454027197687</v>
+        <v>2755.88101097046</v>
       </c>
       <c r="R21">
-        <v>2474.508624477918</v>
+        <v>24802.92909873415</v>
       </c>
       <c r="S21">
-        <v>0.009180419776424505</v>
+        <v>0.00743035644242462</v>
       </c>
       <c r="T21">
-        <v>0.01024690237340169</v>
+        <v>0.00802542771986501</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.538422</v>
+        <v>55.51368333333333</v>
       </c>
       <c r="H22">
-        <v>16.615266</v>
+        <v>166.54105</v>
       </c>
       <c r="I22">
-        <v>0.04539649083831241</v>
+        <v>0.05008759346518457</v>
       </c>
       <c r="J22">
-        <v>0.04574734568113768</v>
+        <v>0.05022251400807577</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N22">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O22">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P22">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q22">
-        <v>257.499714955792</v>
+        <v>3627.645336977133</v>
       </c>
       <c r="R22">
-        <v>2317.497434602128</v>
+        <v>32648.8080327942</v>
       </c>
       <c r="S22">
-        <v>0.008597908720129535</v>
+        <v>0.00978079162095166</v>
       </c>
       <c r="T22">
-        <v>0.00959672143716498</v>
+        <v>0.01056410103677273</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.538422</v>
+        <v>55.51368333333333</v>
       </c>
       <c r="H23">
-        <v>16.615266</v>
+        <v>166.54105</v>
       </c>
       <c r="I23">
-        <v>0.04539649083831241</v>
+        <v>0.05008759346518457</v>
       </c>
       <c r="J23">
-        <v>0.04574734568113768</v>
+        <v>0.05022251400807577</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N23">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O23">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P23">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q23">
-        <v>124.380953590315</v>
+        <v>1690.449475001192</v>
       </c>
       <c r="R23">
-        <v>746.2857215418899</v>
+        <v>10142.69685000715</v>
       </c>
       <c r="S23">
-        <v>0.004153076773990975</v>
+        <v>0.004557759241842338</v>
       </c>
       <c r="T23">
-        <v>0.00309035776059047</v>
+        <v>0.003281849499718532</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.538422</v>
+        <v>55.51368333333333</v>
       </c>
       <c r="H24">
-        <v>16.615266</v>
+        <v>166.54105</v>
       </c>
       <c r="I24">
-        <v>0.04539649083831241</v>
+        <v>0.05008759346518457</v>
       </c>
       <c r="J24">
-        <v>0.04574734568113768</v>
+        <v>0.05022251400807577</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N24">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O24">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P24">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q24">
-        <v>167.74293480097</v>
+        <v>6303.727722721505</v>
       </c>
       <c r="R24">
-        <v>1509.68641320873</v>
+        <v>56733.54950449355</v>
       </c>
       <c r="S24">
-        <v>0.00560093218787829</v>
+        <v>0.01699599645607358</v>
       </c>
       <c r="T24">
-        <v>0.006251588350743636</v>
+        <v>0.01835714640908818</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.538422</v>
+        <v>55.51368333333333</v>
       </c>
       <c r="H25">
-        <v>16.615266</v>
+        <v>166.54105</v>
       </c>
       <c r="I25">
-        <v>0.04539649083831241</v>
+        <v>0.05008759346518457</v>
       </c>
       <c r="J25">
-        <v>0.04574734568113768</v>
+        <v>0.05022251400807577</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N25">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O25">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P25">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q25">
-        <v>263.1282212357627</v>
+        <v>1896.562963794489</v>
       </c>
       <c r="R25">
-        <v>2368.153991121864</v>
+        <v>17069.0666741504</v>
       </c>
       <c r="S25">
-        <v>0.008785844397006583</v>
+        <v>0.005113478695341743</v>
       </c>
       <c r="T25">
-        <v>0.009806489463065459</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>54.30244433333333</v>
-      </c>
-      <c r="H26">
-        <v>162.907333</v>
-      </c>
-      <c r="I26">
-        <v>0.4450979749604015</v>
-      </c>
-      <c r="J26">
-        <v>0.4485379937187408</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>49.0911085</v>
-      </c>
-      <c r="N26">
-        <v>98.18221700000001</v>
-      </c>
-      <c r="O26">
-        <v>0.1999782101047527</v>
-      </c>
-      <c r="P26">
-        <v>0.1476650982825601</v>
-      </c>
-      <c r="Q26">
-        <v>2665.767186582877</v>
-      </c>
-      <c r="R26">
-        <v>15994.60311949726</v>
-      </c>
-      <c r="S26">
-        <v>0.08900989635383111</v>
-      </c>
-      <c r="T26">
-        <v>0.06623340692594021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>54.30244433333333</v>
-      </c>
-      <c r="H27">
-        <v>162.907333</v>
-      </c>
-      <c r="I27">
-        <v>0.4450979749604015</v>
-      </c>
-      <c r="J27">
-        <v>0.4485379937187408</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>49.64327433333333</v>
-      </c>
-      <c r="N27">
-        <v>148.929823</v>
-      </c>
-      <c r="O27">
-        <v>0.2022275203852691</v>
-      </c>
-      <c r="P27">
-        <v>0.2239890035330867</v>
-      </c>
-      <c r="Q27">
-        <v>2695.751141010229</v>
-      </c>
-      <c r="R27">
-        <v>24261.76026909206</v>
-      </c>
-      <c r="S27">
-        <v>0.09001105980474659</v>
-      </c>
-      <c r="T27">
-        <v>0.1004675782597907</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>54.30244433333333</v>
-      </c>
-      <c r="H28">
-        <v>162.907333</v>
-      </c>
-      <c r="I28">
-        <v>0.4450979749604015</v>
-      </c>
-      <c r="J28">
-        <v>0.4485379937187408</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>46.493336</v>
-      </c>
-      <c r="N28">
-        <v>139.480008</v>
-      </c>
-      <c r="O28">
-        <v>0.1893958885666406</v>
-      </c>
-      <c r="P28">
-        <v>0.209776573794135</v>
-      </c>
-      <c r="Q28">
-        <v>2524.701790010963</v>
-      </c>
-      <c r="R28">
-        <v>22722.31611009866</v>
-      </c>
-      <c r="S28">
-        <v>0.08429972646683756</v>
-      </c>
-      <c r="T28">
-        <v>0.09409276353881268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>54.30244433333333</v>
-      </c>
-      <c r="H29">
-        <v>162.907333</v>
-      </c>
-      <c r="I29">
-        <v>0.4450979749604015</v>
-      </c>
-      <c r="J29">
-        <v>0.4485379937187408</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>22.4578325</v>
-      </c>
-      <c r="N29">
-        <v>44.915665</v>
-      </c>
-      <c r="O29">
-        <v>0.09148453321607806</v>
-      </c>
-      <c r="P29">
-        <v>0.06755272277719647</v>
-      </c>
-      <c r="Q29">
-        <v>1219.515199178574</v>
-      </c>
-      <c r="R29">
-        <v>7317.091195071444</v>
-      </c>
-      <c r="S29">
-        <v>0.04071958047467393</v>
-      </c>
-      <c r="T29">
-        <v>0.03029996274472199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>54.30244433333333</v>
-      </c>
-      <c r="H30">
-        <v>162.907333</v>
-      </c>
-      <c r="I30">
-        <v>0.4450979749604015</v>
-      </c>
-      <c r="J30">
-        <v>0.4485379937187408</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>30.287135</v>
-      </c>
-      <c r="N30">
-        <v>90.861405</v>
-      </c>
-      <c r="O30">
-        <v>0.1233780868179216</v>
-      </c>
-      <c r="P30">
-        <v>0.1366546683236589</v>
-      </c>
-      <c r="Q30">
-        <v>1644.665462353652</v>
-      </c>
-      <c r="R30">
-        <v>14801.98916118287</v>
-      </c>
-      <c r="S30">
-        <v>0.0549153365971455</v>
-      </c>
-      <c r="T30">
-        <v>0.0612948107621939</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>54.30244433333333</v>
-      </c>
-      <c r="H31">
-        <v>162.907333</v>
-      </c>
-      <c r="I31">
-        <v>0.4450979749604015</v>
-      </c>
-      <c r="J31">
-        <v>0.4485379937187408</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>47.50960133333334</v>
-      </c>
-      <c r="N31">
-        <v>142.528804</v>
-      </c>
-      <c r="O31">
-        <v>0.193535760909338</v>
-      </c>
-      <c r="P31">
-        <v>0.2143619332893629</v>
-      </c>
-      <c r="Q31">
-        <v>2579.887481702192</v>
-      </c>
-      <c r="R31">
-        <v>23218.98733531973</v>
-      </c>
-      <c r="S31">
-        <v>0.08614237526316677</v>
-      </c>
-      <c r="T31">
-        <v>0.0961494714872814</v>
+        <v>0.005522999331798354</v>
       </c>
     </row>
   </sheetData>
